--- a/Manual Test Case file folder/Test Cases.xlsx
+++ b/Manual Test Case file folder/Test Cases.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\PDF And Videos\Testing\MAnual TEst\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\eclipse-workspace\NmapAutomationTest\Manual Test Case file folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2690B27B-38D7-43D9-BAEE-0D0C97B9CBC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D548C7-D752-4840-9DE7-783D0248E0B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="3" xr2:uid="{AB8132BF-ABF5-4C21-A4EC-08B4A438381B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{AB8132BF-ABF5-4C21-A4EC-08B4A438381B}"/>
   </bookViews>
   <sheets>
     <sheet name="SignIN" sheetId="1" r:id="rId1"/>
     <sheet name="Forgot Password" sheetId="2" r:id="rId2"/>
     <sheet name="Sign With OTP" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Login" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="122">
   <si>
     <t>Module Name- Admin</t>
   </si>
@@ -371,6 +371,69 @@
 3.enter email
 4.enter password
 5.click on signup </t>
+  </si>
+  <si>
+    <t>The system accepted the valid input successfully.</t>
+  </si>
+  <si>
+    <t>The system displayed an error message and rejected the input.</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>The system prevented the login attempt and kept the user on the login screen.</t>
+  </si>
+  <si>
+    <t>The system accepted the valid input successfully</t>
+  </si>
+  <si>
+    <t>The system accepted the valid otp  successfully.</t>
+  </si>
+  <si>
+    <t>The system displayed Enter Correct OTP message and rejected the input.</t>
+  </si>
+  <si>
+    <t>The system accepted the valid email and processed the request successfully</t>
+  </si>
+  <si>
+    <t>The system rejected the invalid email and displayed an error message.</t>
+  </si>
+  <si>
+    <t>The system displayed “The Requested Email Id / Mobile No Is Not Found.”</t>
+  </si>
+  <si>
+    <t>The Submit button worked correctly and responded as expected.</t>
+  </si>
+  <si>
+    <t>The Back button successfully navigated to the Login Page.</t>
+  </si>
+  <si>
+    <t>The system accepted the valid name successfully.</t>
+  </si>
+  <si>
+    <t>The system rejected the invalid characters in the name field.</t>
+  </si>
+  <si>
+    <t>The system did not allow signup without a name and prevented account creation.</t>
+  </si>
+  <si>
+    <t>The system successfully selected India from the dropdown menu.</t>
+  </si>
+  <si>
+    <t>The system accepted the valid mobile number.</t>
+  </si>
+  <si>
+    <t>The system rejected the invalid mobile number format.</t>
+  </si>
+  <si>
+    <t>The system accepted the valid email ID.</t>
+  </si>
+  <si>
+    <t>The system rejected the invalid email format.</t>
+  </si>
+  <si>
+    <t>The Submit button was displayed on the SignUp page.</t>
   </si>
 </sst>
 </file>
@@ -475,14 +538,22 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -492,17 +563,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -820,626 +883,669 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D414F0A7-BB05-4291-A9A4-FDD523CE0A28}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:J11"/>
+    <sheetView tabSelected="1" topLeftCell="D14" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="6" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="26.88671875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="26.88671875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="6" customWidth="1"/>
     <col min="8" max="8" width="22.109375" customWidth="1"/>
     <col min="9" max="9" width="25.88671875" customWidth="1"/>
     <col min="10" max="10" width="21.88671875" customWidth="1"/>
-    <col min="11" max="11" width="28.109375" customWidth="1"/>
+    <col min="11" max="11" width="28.109375" style="6" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>1</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
+      <c r="K11" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4" t="s">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="I12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="K12" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="13" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="3" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4" t="s">
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
+      <c r="I13" s="2"/>
+      <c r="J13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="K13" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="14" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>2</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4" t="s">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="K14" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>3</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="2">
         <v>7770073600</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="K15" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="3" t="s">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4" t="s">
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="K16" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="17" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>4</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="I17" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="K17" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="18" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="3" t="s">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4" t="s">
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="2">
         <v>123654</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="K18" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="19" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>5</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4" t="s">
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3" t="s">
+      <c r="I19" s="2"/>
+      <c r="J19" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="K19" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
+      <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
+      <c r="L21" s="2"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
+      <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
+      <c r="L23" s="2"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
+      <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
+      <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="7"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="13"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="8"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="4"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="7"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="13"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="11"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="10"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="7"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A5:L5"/>
     <mergeCell ref="A29:L29"/>
     <mergeCell ref="A30:L30"/>
     <mergeCell ref="A7:L7"/>
@@ -1448,12 +1554,6 @@
     <mergeCell ref="A26:L26"/>
     <mergeCell ref="A27:K27"/>
     <mergeCell ref="A28:L28"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I12" r:id="rId1" xr:uid="{C9C21430-4851-4C61-BB1A-F29585F776ED}"/>
@@ -1468,13 +1568,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED787D26-6CC4-4C4F-B1A7-6377662B9716}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection sqref="A1:L31"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.6640625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="6" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" customWidth="1"/>
     <col min="4" max="4" width="13.21875" customWidth="1"/>
     <col min="5" max="5" width="17.109375" customWidth="1"/>
@@ -1482,553 +1582,579 @@
     <col min="7" max="7" width="14.44140625" customWidth="1"/>
     <col min="8" max="8" width="20.21875" customWidth="1"/>
     <col min="9" max="9" width="27.21875" customWidth="1"/>
-    <col min="10" max="10" width="22.44140625" style="13" customWidth="1"/>
-    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="10" max="10" width="22.44140625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="17" style="6" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>1</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
+      <c r="K11" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4" t="s">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="2">
         <v>123654</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="K12" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="13" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="3" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4" t="s">
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="7">
         <v>123456</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="K13" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="14" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="3" t="s">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4" t="s">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="2">
         <v>12346</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="K14" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="3" t="s">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4" t="s">
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="4" t="s">
+      <c r="I15" s="2"/>
+      <c r="J15" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="K15" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="4"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="4"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="4"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="4"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="4"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
+      <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="4"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
+      <c r="L21" s="2"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="4"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
+      <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="4"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
+      <c r="L23" s="2"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="4"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
+      <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="4"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
+      <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="4"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="3"/>
       <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
+      <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="7"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="13"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="8"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="4"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="7"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="13"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="11"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="10"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="7"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A5:L5"/>
     <mergeCell ref="A30:L30"/>
     <mergeCell ref="A31:L31"/>
     <mergeCell ref="A7:L7"/>
@@ -2037,12 +2163,6 @@
     <mergeCell ref="A27:L27"/>
     <mergeCell ref="A28:K28"/>
     <mergeCell ref="A29:L29"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I11" r:id="rId1" xr:uid="{EAD815D7-3E2F-4CFB-999A-86B813CCBB0B}"/>
@@ -2056,7 +2176,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M1" sqref="A1:M3"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2071,522 +2191,536 @@
     <col min="8" max="8" width="20.88671875" customWidth="1"/>
     <col min="9" max="9" width="30.5546875" customWidth="1"/>
     <col min="10" max="10" width="20.109375" customWidth="1"/>
-    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="11" max="11" width="14" style="6" customWidth="1"/>
     <col min="12" max="12" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>1</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="3" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
+      <c r="K11" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4" t="s">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="2">
         <v>123654</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="K12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="4"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="4"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="4"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="4"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="4"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="4"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="4"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="4"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
+      <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="4"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
+      <c r="L21" s="2"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="4"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
+      <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="4"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
+      <c r="L23" s="2"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="4"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
+      <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="4"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
+      <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="4"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="3"/>
       <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
+      <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="7"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="13"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="8"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="4"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="7"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="13"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="11"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="10"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="7"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A5:L5"/>
     <mergeCell ref="A30:L30"/>
     <mergeCell ref="A31:L31"/>
     <mergeCell ref="A7:L7"/>
@@ -2595,12 +2729,6 @@
     <mergeCell ref="A27:L27"/>
     <mergeCell ref="A28:K28"/>
     <mergeCell ref="A29:L29"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I11" r:id="rId1" xr:uid="{E0AB1171-1D24-4FD9-A78B-2B44BEA967DC}"/>
@@ -2613,8 +2741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CDBE968-D602-48E4-A545-CEA01C61C797}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2629,570 +2757,590 @@
     <col min="8" max="8" width="23.88671875" customWidth="1"/>
     <col min="9" max="9" width="28.109375" customWidth="1"/>
     <col min="10" max="10" width="13.88671875" customWidth="1"/>
-    <col min="11" max="11" width="15.21875" customWidth="1"/>
+    <col min="11" max="11" width="15.21875" style="6" customWidth="1"/>
     <col min="12" max="12" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
     </row>
     <row r="10" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>1</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3" t="s">
+      <c r="K11" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4" t="s">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="2">
         <v>123654</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="3" t="s">
+      <c r="K12" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4" t="s">
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="4" t="s">
+      <c r="I13" s="7"/>
+      <c r="J13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="K13" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="14" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>2</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4" t="s">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="4" t="s">
+      <c r="I14" s="2"/>
+      <c r="J14" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="3" t="s">
+      <c r="K14" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4" t="s">
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="4" t="s">
+      <c r="I15" s="2"/>
+      <c r="J15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="K15" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="4"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="4"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="4"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="4"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="4"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
+      <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="4"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
+      <c r="L21" s="2"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="4"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
+      <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="4"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
+      <c r="L23" s="2"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="4"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
+      <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="4"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
+      <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="4"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="3"/>
       <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
+      <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="7"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="13"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="8"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="4"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="7"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="13"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="11"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="10"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="7"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A5:L5"/>
     <mergeCell ref="A27:L27"/>
     <mergeCell ref="A28:K28"/>
     <mergeCell ref="A29:L29"/>
     <mergeCell ref="A30:L30"/>
     <mergeCell ref="A31:L31"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A9:L9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I11" r:id="rId1" xr:uid="{15A57D3D-A869-4307-844F-AA0471B73362}"/>
